--- a/Experiments/15_mtc2.xlsx
+++ b/Experiments/15_mtc2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.ashimov\Desktop\master_thesis\Experiments\mtc2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C557F3C8-8AA7-496B-BE09-96EFCBFB8531}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,18 +82,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,33 +117,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,9 +172,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,27 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,16 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -518,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D2">
         <v>10000</v>
@@ -527,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>540.3045654296875</v>
+        <v>449.3388061523438</v>
       </c>
       <c r="G2">
-        <v>4.9357218742370614</v>
+        <v>20.26535224914551</v>
       </c>
       <c r="H2">
-        <v>0.96021496408863005</v>
+        <v>0.904532302286987</v>
       </c>
       <c r="I2">
-        <v>0.94649257804297138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.780306371887003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -547,7 +488,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -556,19 +497,19 @@
         <v>0.1</v>
       </c>
       <c r="F3">
-        <v>61.01470947265625</v>
+        <v>88.12675476074219</v>
       </c>
       <c r="G3">
-        <v>4.488032341003418</v>
+        <v>23.34745216369629</v>
       </c>
       <c r="H3">
-        <v>0.95809135307413162</v>
+        <v>0.8687802853786691</v>
       </c>
       <c r="I3">
-        <v>0.95134591559199733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.7468937940971623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -576,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -585,19 +526,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.5558791160583496</v>
+        <v>12.57365608215332</v>
       </c>
       <c r="G4">
-        <v>5.4347467422485352</v>
+        <v>18.68239212036133</v>
       </c>
       <c r="H4">
-        <v>0.95796778808719563</v>
+        <v>0.9048713433512923</v>
       </c>
       <c r="I4">
-        <v>0.94108272969247686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.7974670287218527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -605,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -614,19 +555,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>451.45187377929688</v>
+        <v>614.7761840820312</v>
       </c>
       <c r="G5">
-        <v>3.8326618671417241</v>
+        <v>14.07400989532471</v>
       </c>
       <c r="H5">
-        <v>0.96741100616356368</v>
+        <v>0.9326290046131448</v>
       </c>
       <c r="I5">
-        <v>0.95845068976314129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8474257942144309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -634,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -643,19 +584,19 @@
         <v>0.1</v>
       </c>
       <c r="F6">
-        <v>38.649288177490227</v>
+        <v>51.40799713134766</v>
       </c>
       <c r="G6">
-        <v>4.2434587478637704</v>
+        <v>14.06118488311768</v>
       </c>
       <c r="H6">
-        <v>0.96688459742693389</v>
+        <v>0.9291630328925761</v>
       </c>
       <c r="I6">
-        <v>0.95399730448629028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8475648216855438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -663,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -672,19 +613,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.5457687377929688</v>
+        <v>10.33803749084473</v>
       </c>
       <c r="G7">
-        <v>4.555877685546875</v>
+        <v>17.25510787963867</v>
       </c>
       <c r="H7">
-        <v>0.96560937270580394</v>
+        <v>0.9217864186505018</v>
       </c>
       <c r="I7">
-        <v>0.95061041732743723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8129399897754346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -692,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -701,19 +642,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>907.11474609375</v>
+        <v>809.239013671875</v>
       </c>
       <c r="G8">
-        <v>2.7318184375762939</v>
+        <v>14.60351753234863</v>
       </c>
       <c r="H8">
-        <v>0.97913976417871973</v>
+        <v>0.9366141569452692</v>
       </c>
       <c r="I8">
-        <v>0.97038477146432167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8416854827648652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -721,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -730,19 +671,19 @@
         <v>0.1</v>
       </c>
       <c r="F9">
-        <v>92.031295776367188</v>
+        <v>76.40055084228516</v>
       </c>
       <c r="G9">
-        <v>2.2857868671417241</v>
+        <v>18.61332130432129</v>
       </c>
       <c r="H9">
-        <v>0.98171114822553263</v>
+        <v>0.9364223198641348</v>
       </c>
       <c r="I9">
-        <v>0.97522012978073325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.7982157911542687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -750,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -759,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>201.95747375488281</v>
+        <v>8.794486999511719</v>
       </c>
       <c r="G10">
-        <v>155.1803894042969</v>
+        <v>15.23386383056641</v>
       </c>
       <c r="H10">
-        <v>-0.52799848236624425</v>
+        <v>0.9334647539550639</v>
       </c>
       <c r="I10">
-        <v>-0.68228730246461589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.834851986670313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -779,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -788,19 +729,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>818.61212158203125</v>
+        <v>594.0044555664062</v>
       </c>
       <c r="G11">
-        <v>1.9353998899459841</v>
+        <v>12.20994853973389</v>
       </c>
       <c r="H11">
-        <v>0.98746180204624656</v>
+        <v>0.9647849320646769</v>
       </c>
       <c r="I11">
-        <v>0.9790186217939143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.8676337874338909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -808,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -817,48 +758,48 @@
         <v>0.1</v>
       </c>
       <c r="F12">
-        <v>81.154449462890625</v>
+        <v>90.15464782714844</v>
       </c>
       <c r="G12">
-        <v>2.4850611686706539</v>
+        <v>13.22945976257324</v>
       </c>
       <c r="H12">
-        <v>0.98627341425105863</v>
+        <v>0.9476766135202127</v>
       </c>
       <c r="I12">
-        <v>0.97305982795089951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>0.8565814078683964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13">
+        <v>0.0005</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>1.646408319473267</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.8974436521530149</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.9875443816509083</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.97943009953110971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>4.734439849853516</v>
+      </c>
+      <c r="G13">
+        <v>10.21199321746826</v>
+      </c>
+      <c r="H13">
+        <v>0.9641830124049209</v>
+      </c>
+      <c r="I13">
+        <v>0.8892933200808956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -866,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -875,48 +816,48 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>339.50765991210938</v>
+        <v>597.9210815429688</v>
       </c>
       <c r="G14">
-        <v>1.698574304580688</v>
+        <v>11.91832733154297</v>
       </c>
       <c r="H14">
-        <v>0.99017481996600154</v>
+        <v>0.977185067894512</v>
       </c>
       <c r="I14">
-        <v>0.98158601322871697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>0.8707952122350648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15">
+        <v>0.0005</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="F15" s="2">
-        <v>88.225341796875</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.6761840581893921</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.99026205558241021</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.98182874169107504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>96.18222045898438</v>
+      </c>
+      <c r="G15">
+        <v>11.11820888519287</v>
+      </c>
+      <c r="H15">
+        <v>0.9761843843674111</v>
+      </c>
+      <c r="I15">
+        <v>0.8794691775277413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -924,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="D16">
         <v>10000</v>
@@ -933,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.4240549802780149</v>
+        <v>3.886425971984863</v>
       </c>
       <c r="G16">
-        <v>1.9653947353363039</v>
+        <v>12.26212024688721</v>
       </c>
       <c r="H16">
-        <v>0.98922638432994747</v>
+        <v>0.9705983846100112</v>
       </c>
       <c r="I16">
-        <v>0.97869345054219403</v>
+        <v>0.8670681878577388</v>
       </c>
     </row>
   </sheetData>
